--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/10/seed1/result_data_RandomForest.xlsx
@@ -499,16 +499,16 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>6.2972</v>
+        <v>6.173199999999998</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.424499999999997</v>
+        <v>-8.215299999999996</v>
       </c>
       <c r="E4" t="n">
-        <v>13.4171</v>
+        <v>13.5203</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-7.786399999999998</v>
+        <v>-8.054399999999996</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.590999999999996</v>
+        <v>6.852599999999995</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.525599999999995</v>
+        <v>-8.350599999999993</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>13.53230000000001</v>
+        <v>13.90110000000001</v>
       </c>
     </row>
     <row r="10">
@@ -703,13 +703,13 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>8.520200000000008</v>
+        <v>8.576800000000011</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.293599999999998</v>
+        <v>-8.277699999999998</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>12.8348</v>
+        <v>13.1154</v>
       </c>
     </row>
     <row r="19">
